--- a/Scoresheet.xlsx
+++ b/Scoresheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>S/no</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>t5</t>
   </si>
 </sst>
 </file>
@@ -89,10 +92,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,7 +402,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A47"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,6 +445,27 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44381</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
